--- a/datasets/ml-latest-small/results_path[policy=last_items=005_reorder=10_hybrid].xlsx
+++ b/datasets/ml-latest-small/results_path[policy=last_items=005_reorder=10_hybrid].xlsx
@@ -8,6 +8,11 @@
   </bookViews>
   <sheets>
     <sheet name="bprmf" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ncf" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="userknn" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ease" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="wikidata_page_rank8020" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="mostpop" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1053,4 +1058,2836 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>METRIC</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PROPOSED NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PROPOSED MEAN</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BASELINE NAME</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>BASELINE MEAN</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>WILCOXON</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>TTEST</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>MAP@1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2527221</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2306238</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ncf</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>0.001953125</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0008624356674731433</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>MAP@3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3345075000000001</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3164947</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ncf</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>0.001953125</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.722778646351718e-05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MAP@5</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3558542</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3391676</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>ncf</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0.001953125</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4.687519788806438e-05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>MAP@10</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.3738381000000001</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3583978</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ncf</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0.001953125</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.000123714572495199</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>NDCG@1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.2527221</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2306238</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ncf</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>0.001953125</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0008624356674731433</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>NDCG@3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.413618</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3995938</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ncf</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0.001953125</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.490281532134341e-06</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NDCG@5</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4576239</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4462828</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ncf</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0.001953125</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.433254871589978e-06</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NDCG@10</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5041663999999999</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4957274</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>ncf</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>0.001953125</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4.950083118697316e-07</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>METRIC</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PROPOSED NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PROPOSED MEAN</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BASELINE NAME</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>BASELINE MEAN</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>WILCOXON</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>TTEST</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>MAP@1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3011799</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2901242</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>userknn</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>0.02087926316635164</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.04403320339313432</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>MAP@3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3766916</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3702687</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>userknn</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>0.16015625</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.1518205605001947</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MAP@5</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3833595</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3769916</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>userknn</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0.193359375</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.144742347569373</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>MAP@10</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.3670911</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3604396</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>userknn</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0.064453125</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.04429287917555509</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AGG_DIV@1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>121.7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>110.1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>userknn</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>0.001953125</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0005663791820795695</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AGG_DIV@3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>211.8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>187</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>userknn</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0.001953125</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.575502471931205e-06</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AGG_DIV@5</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>270.4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>248</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>userknn</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0.001953125</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5.546661402412954e-07</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NDCG@1</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3011799</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2901242</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>userknn</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>0.02087926316635164</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.04403320339313432</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>NDCG@3</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4455485</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4443331</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>userknn</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.7927358964229535</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>NDCG@5</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.465702</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4633806000000001</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>userknn</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>0.4921875</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.559152923204439</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>NDCG@10</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4696969</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4658518</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>userknn</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>0.10546875</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.1424787126894479</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>GINI@1</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9946864301765646</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.9948236221005198</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>userknn</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>0.275390625</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.2170814679751766</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>GINI@3</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0.9924086810914184</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9926237249052592</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>userknn</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>0.02734375</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.01850236951921023</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>GINI@5</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.9908593217618072</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9909900743492723</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>userknn</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>0.083984375</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.05638670637039742</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ENTROPY@1</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1.770841963183927</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.772332161862742</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>userknn</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.8821776574671147</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ENTROPY@3</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1.935776898577608</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.93549416331463</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>userknn</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0.921875</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.9545902052796298</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ENTROPY@5</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2.022262637599417</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2.026588908021441</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>userknn</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0.16015625</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.1732145914286559</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>COVERAGE@1</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0.01326549495779132</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.01200092380846467</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>userknn</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>0.001953125</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.0005680973381012025</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>COVERAGE@3</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0.02308558105759583</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.02038286031408228</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>userknn</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>0.001953125</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2.538172228431585e-06</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>COVERAGE@5</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0.02947294614629224</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.02703163892790273</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>userknn</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>0.001953125</v>
+      </c>
+      <c r="G21" t="n">
+        <v>5.462205779987115e-07</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>METRIC</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PROPOSED NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PROPOSED MEAN</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BASELINE NAME</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>BASELINE MEAN</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>WILCOXON</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>TTEST</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>MAP@1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.354972</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3581689</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ease</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.3985340610823892</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>MAP@3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4269966</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4374351000000001</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ease</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>0.01953125</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.01643951155575339</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MAP@5</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4297704999999999</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4383734</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>ease</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0.01953125</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.01021279545894353</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>MAP@10</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.4090808</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4152617</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ease</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0.048828125</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.03552024548126677</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AGG_DIV@1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>137.9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.9</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ease</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>0.001953125</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7.176885140554106e-05</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AGG_DIV@3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>255.5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ease</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0.001953125</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4.926756832497249e-06</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AGG_DIV@5</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>337.9</v>
+      </c>
+      <c r="D8" t="n">
+        <v>314.8</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ease</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0.001953125</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6.196022881192936e-05</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NDCG@1</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.354972</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3581689</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>ease</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.3985340610823892</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>NDCG@3</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4940458999999999</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5117864</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ease</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>0.009765625</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.005703554144643365</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>NDCG@5</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5093460000000001</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5229302999999998</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ease</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>0.009765625</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.003278883623700824</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>NDCG@10</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5125035999999999</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5209195</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ease</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>0.013671875</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.008815208546594301</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>GINI@1</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9939992105534564</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.9946186527478009</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>ease</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>0.001953125</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.053159425669641e-05</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>GINI@3</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0.9909487698103232</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9915242519979988</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ease</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>0.001953125</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.003815427069989e-05</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>GINI@5</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.988840663953955</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9892372008162301</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ease</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>0.001953125</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0003429239982821179</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ENTROPY@1</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1.816575443672135</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.778283292806206</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ease</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0.001953125</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.280010591473526e-05</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ENTROPY@3</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2.003307853973683</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.98380408327597</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ease</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0.001953125</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.0001483729201131293</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ENTROPY@5</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2.099944238039641</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2.094273863377306</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ease</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0.02734375</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02468643186307247</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>COVERAGE@1</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0.01503085320529705</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.01350463208914135</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ease</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>0.001953125</v>
+      </c>
+      <c r="G19" t="n">
+        <v>7.230728996833893e-05</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>COVERAGE@3</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0.02784865976734913</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.02574524094710678</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>ease</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>0.001953125</v>
+      </c>
+      <c r="G20" t="n">
+        <v>4.884495892211772e-06</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>COVERAGE@5</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0.03683007236895318</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.03431250837742249</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>ease</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>0.001953125</v>
+      </c>
+      <c r="G21" t="n">
+        <v>6.16574041044019e-05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>METRIC</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PROPOSED NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PROPOSED MEAN</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BASELINE NAME</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>BASELINE MEAN</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>WILCOXON</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>TTEST</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>MAP@1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2374911</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2020678</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>wikidata_page_rank8020</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>0.001953125</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.948134136449034e-06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>MAP@3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3103754</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2799775</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>wikidata_page_rank8020</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>0.001953125</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.681942873548265e-06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MAP@5</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3185319</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2929292</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>wikidata_page_rank8020</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0.001953125</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.819300879946727e-06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>MAP@10</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.3066335</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2879471</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>wikidata_page_rank8020</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0.001953125</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.52234461032243e-07</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AGG_DIV@1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>58</v>
+      </c>
+      <c r="D6" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>wikidata_page_rank8020</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>0.001953125</v>
+      </c>
+      <c r="G6" t="n">
+        <v>9.490948024059652e-09</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AGG_DIV@3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>106.4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>wikidata_page_rank8020</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0.001953125</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3.901720985273839e-08</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AGG_DIV@5</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>137.4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>126.6</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>wikidata_page_rank8020</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0.001953125</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6.574373851530897e-06</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NDCG@1</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2374911</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2020678</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>wikidata_page_rank8020</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>0.001953125</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.948134136449034e-06</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>NDCG@3</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.377957</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3510845</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>wikidata_page_rank8020</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>0.001953125</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.325071229480822e-05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>NDCG@5</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3994974999999999</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3776284</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>wikidata_page_rank8020</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>0.001953125</v>
+      </c>
+      <c r="G11" t="n">
+        <v>6.943969791177813e-06</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>NDCG@10</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.40747</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3919128</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>wikidata_page_rank8020</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>0.001953125</v>
+      </c>
+      <c r="G12" t="n">
+        <v>5.4050465572701e-07</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>GINI@1</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.998666879534803</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.9991192139799615</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>wikidata_page_rank8020</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>0.001953125</v>
+      </c>
+      <c r="G13" t="n">
+        <v>7.180494186096267e-11</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>GINI@3</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0.9977643466775052</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9983274848310073</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>wikidata_page_rank8020</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>0.001953125</v>
+      </c>
+      <c r="G14" t="n">
+        <v>6.57739765529059e-13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>GINI@5</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.9972007255523714</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9976170943296812</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>wikidata_page_rank8020</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>0.001953125</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.58977752583296e-12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ENTROPY@1</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1.049146344477929</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8658820980525899</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>wikidata_page_rank8020</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0.001953125</v>
+      </c>
+      <c r="G16" t="n">
+        <v>9.02938819348554e-12</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ENTROPY@3</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1.37275066437717</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.228150178190346</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>wikidata_page_rank8020</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0.001953125</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.365262766044535e-13</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ENTROPY@5</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1.493397380780026</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.407646738464246</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>wikidata_page_rank8020</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0.001953125</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.687367390037188e-14</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>COVERAGE@1</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0.006321751214834215</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.004883018310468343</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>wikidata_page_rank8020</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>0.001953125</v>
+      </c>
+      <c r="G19" t="n">
+        <v>9.33808990165828e-09</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>COVERAGE@3</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0.01159724443949066</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.009788039943481193</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>wikidata_page_rank8020</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>0.001953125</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3.8558189106606e-08</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>COVERAGE@5</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0.01497599237171836</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.01379898538536301</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>wikidata_page_rank8020</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>0.001953125</v>
+      </c>
+      <c r="G21" t="n">
+        <v>6.557973708884179e-06</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>METRIC</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PROPOSED NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PROPOSED MEAN</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BASELINE NAME</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>BASELINE MEAN</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>WILCOXON</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>TTEST</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>MAP@1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.1781965</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1689938</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>mostpop</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>0.06631603129893079</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.03971313430452647</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>MAP@3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2305901</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.220071</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>mostpop</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>0.007685794055213263</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.008809663924605412</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MAP@5</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2414451</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.230896</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>mostpop</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0.001953125</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.002256203176106661</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>MAP@10</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2362336</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2278341</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>mostpop</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0.001953125</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.002363850856661644</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AGG_DIV@1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>mostpop</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>0.001953125</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4.700802898600464e-07</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AGG_DIV@3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>38</v>
+      </c>
+      <c r="D7" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>mostpop</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0.001953125</v>
+      </c>
+      <c r="G7" t="n">
+        <v>7.328138840228183e-05</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AGG_DIV@5</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>51</v>
+      </c>
+      <c r="D8" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>mostpop</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0.001953125</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.921070108227438e-05</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NDCG@1</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1781965</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1689938</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>mostpop</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>0.06631603129893079</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.03971313430452647</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>NDCG@3</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2793423</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.2676707</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>mostpop</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>0.00390625</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.003969278673345865</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>NDCG@5</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3046403</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.2927718</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>mostpop</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>0.001953125</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0004045835851006614</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>NDCG@10</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.3162916000000001</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3084027</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>mostpop</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>0.001953125</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0005300786824246149</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>GINI@1</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9992731271809877</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.9994821776317941</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>mostpop</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>0.001953125</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4.083552001359728e-10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>GINI@3</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0.9987610718669652</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9990406746560266</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>mostpop</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>0.001953125</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.147908794208695e-13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>GINI@5</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.9983653584801824</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9986355502943068</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>mostpop</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>0.001953125</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.250305727585585e-13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ENTROPY@1</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8696350480460436</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.6986645973871364</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>mostpop</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0.001953125</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5.420159469064965e-10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ENTROPY@3</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1.146224660466467</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.024793864639217</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>mostpop</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0.001953125</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3.300954933037243e-13</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ENTROPY@5</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1.274744965163369</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.188093911179469</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>mostpop</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0.001953125</v>
+      </c>
+      <c r="G18" t="n">
+        <v>3.441539522071816e-14</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>COVERAGE@1</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0.002496082314630317</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.001809370878299475</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>mostpop</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>0.001953125</v>
+      </c>
+      <c r="G19" t="n">
+        <v>4.730809680799086e-07</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>COVERAGE@3</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0.004141895468010652</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.003575108152303906</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>mostpop</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>0.001953125</v>
+      </c>
+      <c r="G20" t="n">
+        <v>7.25711302260014e-05</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>COVERAGE@5</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>path[policy=last_items=005_reorder=10_hybrid]</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0.005558758273901833</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.005144643141493423</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>mostpop</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>0.001953125</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.899094451978913e-05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>